--- a/2024年上半年度出席表.xlsx
+++ b/2024年上半年度出席表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="456">
   <si>
     <t>姓名</t>
   </si>
@@ -1423,6 +1423,26 @@
   </si>
   <si>
     <t>新泰教會2024年1~6月出席表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳阿彩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭晴文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱惠玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張燕芬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雲祥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -11520,8 +11540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11694,7 +11714,7 @@
     </row>
     <row r="5" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
-        <f t="shared" ref="A5:A22" si="0">A4+1</f>
+        <f t="shared" ref="A5:A21" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -11946,11 +11966,11 @@
     </row>
     <row r="12" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -11985,8 +12005,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>51</v>
+      <c r="B13" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -12021,8 +12041,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>418</v>
+      <c r="B14" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -12058,7 +12078,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -12093,8 +12113,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>54</v>
+      <c r="B16" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -12129,8 +12149,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>402</v>
+      <c r="B17" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -12166,7 +12186,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -12202,7 +12222,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -12238,7 +12258,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -12274,7 +12294,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -12306,11 +12326,11 @@
     </row>
     <row r="22" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -12342,10 +12362,11 @@
     </row>
     <row r="23" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
+        <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>22</v>
+      <c r="B23" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -12377,11 +12398,11 @@
     </row>
     <row r="24" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
-        <f>A23+1</f>
+        <f t="shared" ref="A24:A42" si="1">A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>141</v>
+      <c r="B24" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -12413,11 +12434,11 @@
     </row>
     <row r="25" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
-        <f t="shared" ref="A25:A43" si="1">A24+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -12453,7 +12474,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -12489,7 +12510,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -12525,7 +12546,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -12561,7 +12582,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -12597,7 +12618,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -12633,7 +12654,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -12669,7 +12690,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -12705,7 +12726,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -12741,7 +12762,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -12777,9 +12798,9 @@
         <v>33</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="18"/>
+        <v>359</v>
+      </c>
+      <c r="C35" s="20"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -12813,9 +12834,9 @@
         <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -12845,11 +12866,11 @@
     </row>
     <row r="37" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
-        <f t="shared" si="1"/>
+        <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -12884,8 +12905,8 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>449</v>
+      <c r="B38" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -12917,11 +12938,11 @@
     </row>
     <row r="39" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>92</v>
+      <c r="B39" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -12956,8 +12977,8 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>56</v>
+      <c r="B40" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -12993,7 +13014,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -13023,13 +13044,13 @@
       <c r="AB41" s="18"/>
       <c r="AC41" s="18"/>
     </row>
-    <row r="42" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>429</v>
+        <v>13</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -13059,13 +13080,13 @@
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
     </row>
-    <row r="43" spans="1:29" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
-        <f t="shared" si="1"/>
+        <f>A42+1</f>
         <v>41</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -13101,7 +13122,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -13133,11 +13154,11 @@
     </row>
     <row r="45" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
-        <f>A44+1</f>
+        <f t="shared" ref="A45:A62" si="2">A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>360</v>
+      <c r="B45" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -13169,11 +13190,11 @@
     </row>
     <row r="46" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
-        <f t="shared" ref="A46:A63" si="2">A45+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>146</v>
+      <c r="B46" s="26" t="s">
+        <v>361</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -13209,7 +13230,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -13245,7 +13266,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -13281,7 +13302,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -13317,7 +13338,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>364</v>
+        <v>436</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -13353,7 +13374,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -13385,11 +13406,11 @@
     </row>
     <row r="52" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
-        <f t="shared" si="2"/>
+        <f>A51+1</f>
         <v>50</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>437</v>
+        <v>86</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -13421,11 +13442,11 @@
     </row>
     <row r="53" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
-        <f>A52+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -13461,7 +13482,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -13497,9 +13518,9 @@
         <v>53</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="C55" s="20"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -13532,10 +13553,10 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="20"/>
+      <c r="B56" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -13568,8 +13589,8 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>410</v>
+      <c r="B57" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -13604,8 +13625,8 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>106</v>
+      <c r="B58" s="26" t="s">
+        <v>447</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -13641,7 +13662,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>447</v>
+        <v>121</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -13677,7 +13698,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -13713,7 +13734,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -13749,7 +13770,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -13781,11 +13802,11 @@
     </row>
     <row r="63" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
-        <f t="shared" si="2"/>
+        <f>A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -13821,7 +13842,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>420</v>
+        <v>126</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -13853,11 +13874,11 @@
     </row>
     <row r="65" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
-        <f>A64+1</f>
+        <f t="shared" ref="A65:A81" si="3">A64+1</f>
         <v>63</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -13889,11 +13910,11 @@
     </row>
     <row r="66" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
-        <f t="shared" ref="A66:A82" si="3">A65+1</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -13929,7 +13950,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -13965,7 +13986,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -14001,7 +14022,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -14037,7 +14058,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -14072,10 +14093,10 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="C71" s="18"/>
+      <c r="B71" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="20"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -14109,9 +14130,9 @@
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="20"/>
+        <v>417</v>
+      </c>
+      <c r="C72" s="18"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
@@ -14144,8 +14165,8 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B73" s="24" t="s">
-        <v>417</v>
+      <c r="B73" s="26" t="s">
+        <v>380</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -14181,7 +14202,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -14217,7 +14238,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -14253,7 +14274,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -14289,7 +14310,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>52</v>
+        <v>421</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -14325,7 +14346,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -14361,7 +14382,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -14393,11 +14414,11 @@
     </row>
     <row r="80" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
-        <f t="shared" si="3"/>
+        <f>A79+1</f>
         <v>78</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>422</v>
+        <v>119</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -14429,11 +14450,11 @@
     </row>
     <row r="81" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
-        <f>A80+1</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>119</v>
+        <v>448</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -14465,11 +14486,11 @@
     </row>
     <row r="82" spans="1:29" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
-        <f t="shared" si="3"/>
+        <f>A81+1</f>
         <v>80</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -14505,7 +14526,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -14613,7 +14634,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>61</v>
+        <v>455</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -15655,7 +15676,9 @@
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B115" s="24"/>
+      <c r="B115" s="24" t="s">
+        <v>451</v>
+      </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
@@ -15689,7 +15712,9 @@
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B116" s="26"/>
+      <c r="B116" s="26" t="s">
+        <v>452</v>
+      </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>

--- a/2024年上半年度出席表.xlsx
+++ b/2024年上半年度出席表.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="2021-7~12出席表" sheetId="5" r:id="rId3"/>
+    <sheet name="2024-1~6出席表" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2021-7~12出席表'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2024-1~6出席表'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="461">
   <si>
     <t>姓名</t>
   </si>
@@ -1394,55 +1394,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>陳寅生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林尚億</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘宜娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉廷驛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林西田</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡侑霖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新泰教會2024年1~6月出席表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳阿彩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭晴文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱惠玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張燕芬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雲祥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭國鎮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉奕樑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫翠璘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉容榕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>林瑩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>陳寅生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林尚億</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘宜娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉廷驛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林西田</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡侑霖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新泰教會2024年1~6月出席表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吳阿彩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕭晴文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱惠玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>張燕芬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳雲祥</t>
+    <t>劉以傑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2087,7 +2107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11540,8 +11560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11553,7 +11573,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L1" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="34" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12870,7 +12890,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -13158,7 +13178,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>146</v>
+        <v>456</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -13194,7 +13214,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -13230,7 +13250,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -13266,7 +13286,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -13302,7 +13322,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -13626,7 +13646,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -14454,7 +14474,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -14490,7 +14510,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -14526,7 +14546,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -14634,7 +14654,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -14850,7 +14870,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -15569,7 +15589,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -15605,7 +15625,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -15641,7 +15661,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -15677,7 +15697,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -15713,7 +15733,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
